--- a/data/drivers.xlsx
+++ b/data/drivers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Conducteurs" sheetId="1" r:id="rId1"/>
+    <sheet name="drivers" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +421,9 @@
       <c r="F1" t="str">
         <v>vehicle.model</v>
       </c>
+      <c r="G1" t="str">
+        <v>vehicle</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -495,12 +498,6 @@
       <c r="D5" t="str">
         <v>0567233893</v>
       </c>
-      <c r="E5" t="str">
-        <v>sdgas556</v>
-      </c>
-      <c r="F5" t="str">
-        <v>volvo</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -515,16 +512,108 @@
       <c r="D6" t="str">
         <v>043243324</v>
       </c>
-      <c r="E6" t="str">
-        <v>4832432894</v>
-      </c>
-      <c r="F6" t="str">
-        <v>SDHDGSAD</v>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C7" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="D7" t="str">
+        <v>23213213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C8" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="D8" t="str">
+        <v>23213213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C9" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="D9" t="str">
+        <v>23213213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C10" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="D10" t="str">
+        <v>23213213</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C11" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="D11" t="str">
+        <v>23213213</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C12" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="D12" t="str">
+        <v>23213213</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C13" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="D13" t="str">
+        <v>23213213</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
   </ignoredErrors>
 </worksheet>
 </file>